--- a/sm_core/Excel_Files/addepar_missing_act_rep_codes.xlsx
+++ b/sm_core/Excel_Files/addepar_missing_act_rep_codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup\portfolio\sm_core\Excel_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sm-core\sm_core\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BF2F29-FC3D-4DC8-A67A-B05193BC1C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A4045A-F792-4EB4-8A5A-0E58B79B7079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="858">
   <si>
     <t>team</t>
   </si>
@@ -2928,15 +2928,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
